--- a/data/trans_orig/IP19_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9054F69C-5787-42C8-A876-F441146A6A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33128FF0-774B-4C99-A13E-8A5EE8CE1725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C814668C-3DD0-4104-9852-D70783D7E0FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C82E0946-0923-460E-9F76-400CF00FC270}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>23,84%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,802 +161,772 @@
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>30,56%</t>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D5360D-34EF-45FA-BDF3-B811CB89429F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9C2770-4423-415F-B38F-ACCBED19D23B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2269,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57526FC7-38FE-4918-A254-B3C09EC9FEC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB60C7-F00F-46E4-91E4-C5BFBD84A69C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2563,7 +2533,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -2572,13 +2542,13 @@
         <v>54125</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,28 +2563,28 @@
         <v>57030</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>67406</v>
+        <v>67407</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>179</v>
@@ -2623,13 +2593,13 @@
         <v>124436</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,7 +2626,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2697,13 +2667,13 @@
         <v>134519</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -2712,13 +2682,13 @@
         <v>136686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -2727,13 +2697,13 @@
         <v>271205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2718,13 @@
         <v>357182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
@@ -2763,13 +2733,13 @@
         <v>315524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>972</v>
@@ -2778,13 +2748,13 @@
         <v>672706</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2822,13 @@
         <v>53722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -2867,13 +2837,13 @@
         <v>57398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -2882,13 +2852,13 @@
         <v>111119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2873,13 @@
         <v>117143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -2918,13 +2888,13 @@
         <v>109414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>319</v>
@@ -2933,13 +2903,13 @@
         <v>226559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2977,13 @@
         <v>217403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>314</v>
@@ -3022,13 +2992,13 @@
         <v>219046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>622</v>
@@ -3037,13 +3007,13 @@
         <v>436449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3028,13 @@
         <v>531997</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>711</v>
@@ -3073,13 +3043,13 @@
         <v>492345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>1471</v>
@@ -3088,13 +3058,13 @@
         <v>1024342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,7 +3140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3046203-2423-4C6D-9E23-48A473B2C96E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7B31FB-DC27-4576-9397-A7AC834D8E80}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3187,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3431,13 +3401,13 @@
         <v>12609</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3446,13 +3416,13 @@
         <v>11072</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3461,13 +3431,13 @@
         <v>23681</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3452,13 @@
         <v>56005</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -3497,13 +3467,13 @@
         <v>48306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -3512,13 +3482,13 @@
         <v>104312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3556,13 @@
         <v>138876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -3601,13 +3571,13 @@
         <v>146367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
@@ -3616,13 +3586,13 @@
         <v>285243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3607,13 @@
         <v>349859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -3652,13 +3622,13 @@
         <v>325923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1002</v>
@@ -3667,13 +3637,13 @@
         <v>675782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3711,13 @@
         <v>59228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3756,13 +3726,13 @@
         <v>55857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -3771,13 +3741,13 @@
         <v>115084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3762,13 @@
         <v>128267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -3807,13 +3777,13 @@
         <v>116846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -3822,13 +3792,13 @@
         <v>245113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3866,13 @@
         <v>210713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>311</v>
@@ -3911,13 +3881,13 @@
         <v>213296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -3926,13 +3896,13 @@
         <v>424008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3917,13 @@
         <v>534131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -3962,13 +3932,13 @@
         <v>491075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>1524</v>
@@ -3977,13 +3947,13 @@
         <v>1025207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2884BA-1061-4908-B52A-56BCE2CED209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614C323A-89DB-4ACC-82AE-452937E56D82}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4076,7 +4046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4320,13 +4290,13 @@
         <v>6593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4335,13 +4305,13 @@
         <v>6205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4350,13 +4320,13 @@
         <v>12799</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4341,13 @@
         <v>50240</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -4386,13 +4356,13 @@
         <v>43945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>129</v>
@@ -4401,13 +4371,13 @@
         <v>94184</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,13 +4445,13 @@
         <v>146425</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>175</v>
@@ -4490,13 +4460,13 @@
         <v>126503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>348</v>
@@ -4505,10 +4475,10 @@
         <v>272927</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>79</v>
@@ -4526,13 +4496,13 @@
         <v>341665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>458</v>
@@ -4541,13 +4511,13 @@
         <v>315836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>935</v>
@@ -4556,13 +4526,13 @@
         <v>657502</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4600,13 @@
         <v>68645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4645,13 +4615,13 @@
         <v>58904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -4660,13 +4630,13 @@
         <v>127549</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4651,13 @@
         <v>100909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4696,13 +4666,13 @@
         <v>91228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>286</v>
@@ -4711,13 +4681,13 @@
         <v>192137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4755,13 @@
         <v>221663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>268</v>
@@ -4800,13 +4770,13 @@
         <v>191612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>541</v>
@@ -4815,13 +4785,13 @@
         <v>413275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4806,13 @@
         <v>492814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>660</v>
@@ -4851,13 +4821,13 @@
         <v>451009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>1350</v>
@@ -4866,13 +4836,13 @@
         <v>943823</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33128FF0-774B-4C99-A13E-8A5EE8CE1725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E39827-9A6C-450C-AFA7-D792065B3FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C82E0946-0923-460E-9F76-400CF00FC270}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2D556455-FDC7-4F5C-9932-BBC668FE1640}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,865 +68,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>31,38%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>34,77%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>72,56%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>67,94%</t>
+    <t>68,09%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
     <t>70,32%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>72,8%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>68,41%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>66,95%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9C2770-4423-415F-B38F-ACCBED19D23B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92E91BD-23DB-4E42-93B5-FF8509314E70}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1456,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>29407</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1471,81 +1468,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20706</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>50113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>61460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66139</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>127599</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,151 +1555,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="D7" s="7">
-        <v>20706</v>
+        <v>141882</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="I7" s="7">
-        <v>29407</v>
+        <v>148077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="N7" s="7">
-        <v>50113</v>
+        <v>289959</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>418</v>
       </c>
       <c r="D8" s="7">
-        <v>66138</v>
+        <v>273515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>496</v>
       </c>
       <c r="I8" s="7">
-        <v>61460</v>
+        <v>328914</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>190</v>
+        <v>914</v>
       </c>
       <c r="N8" s="7">
-        <v>127599</v>
+        <v>602429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,153 +1710,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>627</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>415397</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1346</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>892388</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>148077</v>
+        <v>50023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>141882</v>
+        <v>42541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="N10" s="7">
-        <v>289959</v>
+        <v>92564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>496</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
-        <v>328914</v>
+        <v>124043</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>418</v>
+        <v>173</v>
       </c>
       <c r="I11" s="7">
-        <v>273515</v>
+        <v>115597</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>914</v>
+        <v>356</v>
       </c>
       <c r="N11" s="7">
-        <v>602429</v>
+        <v>239641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,153 +1865,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>415397</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1346</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>892388</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="D13" s="7">
-        <v>42541</v>
+        <v>221311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="I13" s="7">
-        <v>50023</v>
+        <v>211324</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>134</v>
+        <v>642</v>
       </c>
       <c r="N13" s="7">
-        <v>92564</v>
+        <v>432635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>173</v>
+        <v>692</v>
       </c>
       <c r="D14" s="7">
-        <v>115597</v>
+        <v>459019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>183</v>
+        <v>768</v>
       </c>
       <c r="I14" s="7">
-        <v>124043</v>
+        <v>510650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>356</v>
+        <v>1460</v>
       </c>
       <c r="N14" s="7">
-        <v>239641</v>
+        <v>969669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,216 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1017</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>680330</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2102</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402304</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>317</v>
-      </c>
-      <c r="D16" s="7">
-        <v>211324</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>325</v>
-      </c>
-      <c r="I16" s="7">
-        <v>221311</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>642</v>
-      </c>
-      <c r="N16" s="7">
-        <v>432635</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>769</v>
-      </c>
-      <c r="D17" s="7">
-        <v>511376</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>692</v>
-      </c>
-      <c r="I17" s="7">
-        <v>459019</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1461</v>
-      </c>
-      <c r="N17" s="7">
-        <v>970395</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="7">
-        <v>680330</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403030</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2239,8 +2086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB60C7-F00F-46E4-91E4-C5BFBD84A69C}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C136D80D-F494-4668-8753-EDD1BFE60A93}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2256,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2357,96 +2204,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>24962</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I4" s="7">
+        <v>29162</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>54125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>67407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57030</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>124436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,151 +2306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>29162</v>
+        <v>136686</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="I7" s="7">
-        <v>24962</v>
+        <v>134519</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="N7" s="7">
-        <v>54125</v>
+        <v>271205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="D8" s="7">
-        <v>57030</v>
+        <v>315524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>98</v>
+        <v>513</v>
       </c>
       <c r="I8" s="7">
-        <v>67407</v>
+        <v>357182</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>179</v>
+        <v>972</v>
       </c>
       <c r="N8" s="7">
-        <v>124436</v>
+        <v>672706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,153 +2461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>452210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>704</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>491701</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1359</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>943911</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>134519</v>
+        <v>57398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>136686</v>
+        <v>53722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>387</v>
+        <v>159</v>
       </c>
       <c r="N10" s="7">
-        <v>271205</v>
+        <v>111119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>513</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>357182</v>
+        <v>109414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>459</v>
+        <v>165</v>
       </c>
       <c r="I11" s="7">
-        <v>315524</v>
+        <v>117143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>972</v>
+        <v>319</v>
       </c>
       <c r="N11" s="7">
-        <v>672706</v>
+        <v>226559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,153 +2616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>704</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>491701</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
-        <v>452210</v>
+        <v>170865</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1359</v>
+        <v>478</v>
       </c>
       <c r="N12" s="7">
-        <v>943911</v>
+        <v>337678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="D13" s="7">
-        <v>53722</v>
+        <v>219046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="I13" s="7">
-        <v>57398</v>
+        <v>217403</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>159</v>
+        <v>622</v>
       </c>
       <c r="N13" s="7">
-        <v>111119</v>
+        <v>436449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>165</v>
+        <v>711</v>
       </c>
       <c r="D14" s="7">
-        <v>117143</v>
+        <v>492345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
+        <v>759</v>
+      </c>
+      <c r="I14" s="7">
+        <v>531356</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1470</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1023701</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="I14" s="7">
-        <v>109414</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="7">
-        <v>319</v>
-      </c>
-      <c r="N14" s="7">
-        <v>226559</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,216 +2771,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>242</v>
+        <v>1025</v>
       </c>
       <c r="D15" s="7">
-        <v>170865</v>
+        <v>711391</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1067</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>748759</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>478</v>
+        <v>2092</v>
       </c>
       <c r="N15" s="7">
-        <v>337678</v>
+        <v>1460150</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>308</v>
-      </c>
-      <c r="D16" s="7">
-        <v>217403</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7">
-        <v>314</v>
-      </c>
-      <c r="I16" s="7">
-        <v>219046</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" s="7">
-        <v>622</v>
-      </c>
-      <c r="N16" s="7">
-        <v>436449</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>760</v>
-      </c>
-      <c r="D17" s="7">
-        <v>531997</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="7">
-        <v>711</v>
-      </c>
-      <c r="I17" s="7">
-        <v>492345</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1471</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1024342</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1068</v>
-      </c>
-      <c r="D18" s="7">
-        <v>749400</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1460791</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3140,8 +2837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7B31FB-DC27-4576-9397-A7AC834D8E80}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39C6357-1C29-4016-AAF7-964F6BB52861}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3157,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3258,88 +2955,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11072</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12609</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="N4" s="7">
+        <v>23681</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48306</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I5" s="7">
+        <v>56005</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="N5" s="7">
+        <v>104312</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,147 +3057,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="D7" s="7">
-        <v>12609</v>
+        <v>146367</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I7" s="7">
-        <v>11072</v>
+        <v>138876</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="N7" s="7">
-        <v>23681</v>
+        <v>285243</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="D8" s="7">
-        <v>56005</v>
+        <v>325923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
-        <v>72</v>
+        <v>503</v>
       </c>
       <c r="I8" s="7">
-        <v>48306</v>
+        <v>349859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>153</v>
+        <v>1002</v>
       </c>
       <c r="N8" s="7">
-        <v>104312</v>
+        <v>675782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,153 +3212,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7">
+        <v>55857</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="7">
-        <v>138876</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>146367</v>
+        <v>59228</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>285243</v>
+        <v>115084</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>503</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7">
-        <v>349859</v>
+        <v>116846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="7">
         <v>190</v>
       </c>
-      <c r="H11" s="7">
-        <v>499</v>
-      </c>
       <c r="I11" s="7">
-        <v>325923</v>
+        <v>128267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>1002</v>
+        <v>369</v>
       </c>
       <c r="N11" s="7">
-        <v>675782</v>
+        <v>245113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,153 +3367,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="D13" s="7">
-        <v>59228</v>
+        <v>213296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="I13" s="7">
-        <v>55857</v>
+        <v>210713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
-        <v>160</v>
+        <v>602</v>
       </c>
       <c r="N13" s="7">
-        <v>115084</v>
+        <v>424008</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>750</v>
       </c>
       <c r="D14" s="7">
-        <v>128267</v>
+        <v>491075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
-        <v>179</v>
+        <v>774</v>
       </c>
       <c r="I14" s="7">
-        <v>116846</v>
+        <v>534131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>369</v>
+        <v>1524</v>
       </c>
       <c r="N14" s="7">
-        <v>245113</v>
+        <v>1025207</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,216 +3522,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>291</v>
-      </c>
-      <c r="D16" s="7">
-        <v>210713</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>311</v>
-      </c>
-      <c r="I16" s="7">
-        <v>213296</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M16" s="7">
-        <v>602</v>
-      </c>
-      <c r="N16" s="7">
-        <v>424008</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>774</v>
-      </c>
-      <c r="D17" s="7">
-        <v>534131</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="7">
-        <v>750</v>
-      </c>
-      <c r="I17" s="7">
-        <v>491075</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1524</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1025207</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4029,8 +3588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614C323A-89DB-4ACC-82AE-452937E56D82}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C58AE8-8385-4491-931B-D6B2433B99CB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4046,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4147,88 +3706,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5939</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6971</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>12910</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47776</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="I5" s="7">
+        <v>52969</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="N5" s="7">
+        <v>100744</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,147 +3808,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53715</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="I6" s="7">
+        <v>59940</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="N6" s="7">
+        <v>113654</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="D7" s="7">
-        <v>6593</v>
+        <v>125373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="I7" s="7">
-        <v>6205</v>
+        <v>156972</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="N7" s="7">
-        <v>12799</v>
+        <v>282345</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="D8" s="7">
-        <v>50240</v>
+        <v>327762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>477</v>
       </c>
       <c r="I8" s="7">
-        <v>43945</v>
+        <v>355195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>129</v>
+        <v>935</v>
       </c>
       <c r="N8" s="7">
-        <v>94184</v>
+        <v>682957</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,153 +3963,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>81</v>
+        <v>633</v>
       </c>
       <c r="D9" s="7">
-        <v>56833</v>
+        <v>453135</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>650</v>
       </c>
       <c r="I9" s="7">
-        <v>50150</v>
+        <v>512167</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>148</v>
+        <v>1283</v>
       </c>
       <c r="N9" s="7">
-        <v>106983</v>
+        <v>965302</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>146425</v>
+        <v>57901</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7">
-        <v>126503</v>
+        <v>71501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="N10" s="7">
-        <v>272927</v>
+        <v>129402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>477</v>
+        <v>144</v>
       </c>
       <c r="D11" s="7">
-        <v>341665</v>
+        <v>90425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>458</v>
+        <v>142</v>
       </c>
       <c r="I11" s="7">
-        <v>315836</v>
+        <v>106763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>935</v>
+        <v>286</v>
       </c>
       <c r="N11" s="7">
-        <v>657502</v>
+        <v>197188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,153 +4118,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>650</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>488090</v>
+        <v>148326</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>633</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>442339</v>
+        <v>178264</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1283</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>930429</v>
+        <v>326590</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="D13" s="7">
-        <v>68645</v>
+        <v>189213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="I13" s="7">
-        <v>58904</v>
+        <v>235444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
-        <v>174</v>
+        <v>541</v>
       </c>
       <c r="N13" s="7">
-        <v>127549</v>
+        <v>424657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>142</v>
+        <v>660</v>
       </c>
       <c r="D14" s="7">
-        <v>100909</v>
+        <v>465962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>144</v>
+        <v>690</v>
       </c>
       <c r="I14" s="7">
-        <v>91228</v>
+        <v>514927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
-        <v>286</v>
+        <v>1350</v>
       </c>
       <c r="N14" s="7">
-        <v>192137</v>
+        <v>980889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,216 +4273,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>928</v>
       </c>
       <c r="D15" s="7">
-        <v>169554</v>
+        <v>655175</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>963</v>
       </c>
       <c r="I15" s="7">
-        <v>150132</v>
+        <v>750371</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>319686</v>
+        <v>1405546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>273</v>
-      </c>
-      <c r="D16" s="7">
-        <v>221663</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="7">
-        <v>268</v>
-      </c>
-      <c r="I16" s="7">
-        <v>191612</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M16" s="7">
-        <v>541</v>
-      </c>
-      <c r="N16" s="7">
-        <v>413275</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>690</v>
-      </c>
-      <c r="D17" s="7">
-        <v>492814</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H17" s="7">
-        <v>660</v>
-      </c>
-      <c r="I17" s="7">
-        <v>451009</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1350</v>
-      </c>
-      <c r="N17" s="7">
-        <v>943823</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>963</v>
-      </c>
-      <c r="D18" s="7">
-        <v>714477</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>928</v>
-      </c>
-      <c r="I18" s="7">
-        <v>642621</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1357098</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
